--- a/grupos/2ASV - Estadisticos 20242.xlsx
+++ b/grupos/2ASV - Estadisticos 20242.xlsx
@@ -737,7 +737,7 @@
         <v>7</v>
       </c>
       <c r="K4">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L4">
         <v>10</v>
@@ -838,7 +838,7 @@
         <v>7</v>
       </c>
       <c r="K5">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L5">
         <v>9</v>
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="K6">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="L6">
         <v>5</v>
@@ -1040,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="K7">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L7">
         <v>9</v>
@@ -1141,7 +1141,7 @@
         <v>8</v>
       </c>
       <c r="K8">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="L8">
         <v>10</v>
@@ -1189,7 +1189,7 @@
         <v>8</v>
       </c>
       <c r="AA8">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB8">
         <v>10</v>
@@ -1242,7 +1242,7 @@
         <v>6</v>
       </c>
       <c r="K9">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L9">
         <v>6</v>
@@ -1343,7 +1343,7 @@
         <v>8</v>
       </c>
       <c r="K10">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="L10">
         <v>10</v>
@@ -1444,7 +1444,7 @@
         <v>7</v>
       </c>
       <c r="K11">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L11">
         <v>9</v>
@@ -1492,7 +1492,7 @@
         <v>7</v>
       </c>
       <c r="AA11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AB11">
         <v>9</v>
@@ -1545,7 +1545,7 @@
         <v>6</v>
       </c>
       <c r="K12">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L12">
         <v>8</v>
@@ -1646,7 +1646,7 @@
         <v>6</v>
       </c>
       <c r="K13">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L13">
         <v>8</v>
@@ -1747,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="K14">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="L14">
         <v>8</v>
@@ -2062,7 +2062,7 @@
         <v>100</v>
       </c>
       <c r="K5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="L5">
         <v>100</v>
@@ -2086,7 +2086,7 @@
         <v>100</v>
       </c>
       <c r="S5">
-        <v>100</v>
+        <v>97.7</v>
       </c>
       <c r="T5">
         <v>100</v>
@@ -2139,7 +2139,7 @@
         <v>42.1</v>
       </c>
       <c r="K6">
-        <v>66.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L6">
         <v>50</v>
@@ -2163,7 +2163,7 @@
         <v>42.1</v>
       </c>
       <c r="S6">
-        <v>66.7</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="T6">
         <v>50</v>
@@ -2370,7 +2370,7 @@
         <v>89.5</v>
       </c>
       <c r="K9">
-        <v>61.9</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="L9">
         <v>100</v>
@@ -2394,7 +2394,7 @@
         <v>89.5</v>
       </c>
       <c r="S9">
-        <v>61.9</v>
+        <v>72.09999999999999</v>
       </c>
       <c r="T9">
         <v>100</v>
@@ -2524,7 +2524,7 @@
         <v>94.7</v>
       </c>
       <c r="K11">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="L11">
         <v>100</v>
@@ -2548,7 +2548,7 @@
         <v>94.7</v>
       </c>
       <c r="S11">
-        <v>100</v>
+        <v>90.7</v>
       </c>
       <c r="T11">
         <v>100</v>
@@ -2601,7 +2601,7 @@
         <v>89.5</v>
       </c>
       <c r="K12">
-        <v>85.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L12">
         <v>100</v>
@@ -2625,7 +2625,7 @@
         <v>89.5</v>
       </c>
       <c r="S12">
-        <v>85.7</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="T12">
         <v>100</v>
@@ -2678,7 +2678,7 @@
         <v>94.7</v>
       </c>
       <c r="K13">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="L13">
         <v>100</v>
@@ -2702,7 +2702,7 @@
         <v>94.7</v>
       </c>
       <c r="S13">
-        <v>100</v>
+        <v>95.3</v>
       </c>
       <c r="T13">
         <v>100</v>
@@ -2755,7 +2755,7 @@
         <v>94.7</v>
       </c>
       <c r="K14">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="L14">
         <v>100</v>
@@ -2779,7 +2779,7 @@
         <v>94.7</v>
       </c>
       <c r="S14">
-        <v>71.40000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="T14">
         <v>100</v>
@@ -2878,7 +2878,7 @@
         <v>36.4</v>
       </c>
       <c r="H2">
-        <v>6.7</v>
+        <v>6.5</v>
       </c>
       <c r="I2">
         <v>0</v>

--- a/grupos/2ASV - Estadisticos 20242.xlsx
+++ b/grupos/2ASV - Estadisticos 20242.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="55">
   <si>
     <t>Materia</t>
   </si>
@@ -153,9 +153,6 @@
   </si>
   <si>
     <t>Acevedo Rendón Ismael Arturo</t>
-  </si>
-  <si>
-    <t>Ameca Garcia Ivan</t>
   </si>
   <si>
     <t>NC</t>
@@ -3084,7 +3081,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>11</v>
@@ -3150,16 +3147,16 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3187,16 +3184,16 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -3213,13 +3210,13 @@
         <v>23330051920312</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -3236,13 +3233,13 @@
         <v>23330051920312</v>
       </c>
       <c r="B3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
@@ -3259,13 +3256,13 @@
         <v>23330051920312</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>12</v>
@@ -3282,13 +3279,13 @@
         <v>24330051920320</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
